--- a/back-end/src/data/feedback.xlsx
+++ b/back-end/src/data/feedback.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -598,9 +598,37 @@
         <v>i have problem</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>hani</v>
+      </c>
+      <c r="B15" t="str">
+        <v>haniosama@gmail.com</v>
+      </c>
+      <c r="C15" t="str">
+        <v>01224240384</v>
+      </c>
+      <c r="D15" t="str">
+        <v>this ais a product</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>hani</v>
+      </c>
+      <c r="B16" t="str">
+        <v>haniosama@gmail.com</v>
+      </c>
+      <c r="C16" t="str">
+        <v>01224240384</v>
+      </c>
+      <c r="D16" t="str">
+        <v>dsfsdgsdfg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D16"/>
   </ignoredErrors>
 </worksheet>
 </file>